--- a/Day 2- Excel Dashboards and Data Visualization/2-Interactive Data Visualizations p1/2-2 Info-Graphic Camera Tools.xlsx
+++ b/Day 2- Excel Dashboards and Data Visualization/2-Interactive Data Visualizations p1/2-2 Info-Graphic Camera Tools.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpo64\Desktop\Courses\Elementsix\Day 2- Excel Dashboards and Data Visualization\2-Interactive Data Visualizations p1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpo64\Documents\GitHub\element-six-day-2\Day 2- Excel Dashboards and Data Visualization\2-Interactive Data Visualizations p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD3B97E-FC2F-4400-BD99-A9412E264B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FF5960-CDDD-463E-9EEB-069864F67F1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2593" windowWidth="18000" windowHeight="9394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="507" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress Meter" sheetId="4" r:id="rId1"/>
